--- a/company/reports/fzb_600519.xlsx
+++ b/company/reports/fzb_600519.xlsx
@@ -618,61 +618,61 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>以公允价值计量且其变动计入当期损益的金融资产</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
+        <v>交易性金融资产</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1326,61 +1326,61 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>长期待摊费用</v>
-      </c>
-      <c r="B17">
-        <v>168414678.77</v>
-      </c>
-      <c r="C17">
-        <v>177859674.54</v>
-      </c>
-      <c r="D17">
-        <v>188118776.51</v>
-      </c>
-      <c r="E17">
-        <v>198603537.81</v>
-      </c>
-      <c r="F17">
-        <v>5408286.83</v>
-      </c>
-      <c r="G17">
-        <v>8048744.96</v>
-      </c>
-      <c r="H17">
-        <v>10177029.43</v>
-      </c>
-      <c r="I17">
-        <v>13805361.44</v>
-      </c>
-      <c r="J17">
-        <v>18701578.16</v>
-      </c>
-      <c r="K17">
-        <v>21469624.81</v>
-      </c>
-      <c r="L17">
-        <v>10146520.77</v>
-      </c>
-      <c r="M17">
-        <v>12477325.46</v>
-      </c>
-      <c r="N17">
-        <v>68459874.91</v>
-      </c>
-      <c r="O17">
-        <v>60377239.58</v>
-      </c>
-      <c r="P17">
-        <v>50939036</v>
-      </c>
-      <c r="Q17">
-        <v>33607508.12</v>
-      </c>
-      <c r="R17">
-        <v>22221522.31</v>
-      </c>
-      <c r="S17">
-        <v>16579763.94</v>
+        <v>待摊费用</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
